--- a/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
+++ b/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\NemaKeys\public_html\NemaKeys.github.io\Oleksandr Holovachov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024959D3-E755-4F9D-9F93-1F371D48034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6F82F-210F-4E0A-9259-ED3C0FDA87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39375" yWindow="3585" windowWidth="30360" windowHeight="17025" xr2:uid="{2626B120-11FD-4E31-A6AB-D6CA055CE30C}"/>
+    <workbookView xWindow="12450" yWindow="4200" windowWidth="17355" windowHeight="11700" xr2:uid="{2626B120-11FD-4E31-A6AB-D6CA055CE30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>S1</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>DESS Entire Nematode Coastal Community</t>
+  </si>
+  <si>
+    <t>Vancouver Island Rock Moss</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>No Salt Crystalizing</t>
   </si>
 </sst>
 </file>
@@ -118,6 +136,281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$2" max="30000" page="10" val="26"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$3" max="30000" page="10" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$4" max="30000" page="10" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$5" max="30000" page="10" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$6" max="30000" page="10" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Spinner 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Spinner 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Spinner 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Spinner 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Spinner 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,11 +729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19910C0D-E27C-486C-B4F8-73D4FD7F716F}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19910C0D-E27C-486C-B4F8-73D4FD7F716F}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -449,7 +742,7 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -462,36 +755,190 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="215" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId4" name="Spinner 9">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId5" name="Spinner 11">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId6" name="Spinner 12">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId7" name="Spinner 13">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId8" name="Spinner 14">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
+++ b/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\NemaKeys\public_html\NemaKeys.github.io\Oleksandr Holovachov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6F82F-210F-4E0A-9259-ED3C0FDA87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54D413-FFFF-436E-8D3B-35A84170AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12450" yWindow="4200" windowWidth="17355" windowHeight="11700" xr2:uid="{2626B120-11FD-4E31-A6AB-D6CA055CE30C}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$2" max="30000" page="10" val="26"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$2" max="30000" page="10" val="30"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,7 +733,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
+++ b/Oleksandr Holovachov/Oleksandr Holovachov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\NemaKeys\public_html\NemaKeys.github.io\Oleksandr Holovachov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54D413-FFFF-436E-8D3B-35A84170AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C439FFE-5B2D-4376-98C6-DB04D8595401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="4200" windowWidth="17355" windowHeight="11700" xr2:uid="{2626B120-11FD-4E31-A6AB-D6CA055CE30C}"/>
+    <workbookView xWindow="2820" yWindow="2925" windowWidth="26085" windowHeight="11700" xr2:uid="{2626B120-11FD-4E31-A6AB-D6CA055CE30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>S1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>S5</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -65,35 +62,57 @@
     <t>North Vancouver B.C., Canada</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>Many</t>
-  </si>
-  <si>
-    <t>DESS Entire Nematode Coastal Community</t>
-  </si>
-  <si>
     <t>Vancouver Island Rock Moss</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>No Salt Crystalizing</t>
+    <t>Moss Weight</t>
+  </si>
+  <si>
+    <t>24 grams</t>
+  </si>
+  <si>
+    <t>Vancouver Island Tree Moss</t>
+  </si>
+  <si>
+    <t>20 grams</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/V5D3MMZXnGhSGoJT8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/oJqd1wfAhCRVCqYx6</t>
+  </si>
+  <si>
+    <t>99 grams</t>
+  </si>
+  <si>
+    <t>Vial 
+Label</t>
+  </si>
+  <si>
+    <t>Potential Hemiplectus
+Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,13 +135,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -139,23 +164,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$2" max="30000" page="10" val="30"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$2" max="30000" page="10" val="47"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$3" max="30000" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$3" max="30000" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$4" max="30000" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$4" max="30000" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$5" max="30000" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$5" max="30000" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$6" max="30000" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$6" max="30000" page="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,13 +189,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>447675</xdr:rowOff>
@@ -214,13 +239,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>447675</xdr:rowOff>
@@ -264,13 +289,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>447675</xdr:rowOff>
@@ -314,13 +339,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>447675</xdr:rowOff>
@@ -364,13 +389,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>447675</xdr:rowOff>
@@ -730,116 +755,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19910C0D-E27C-486C-B4F8-73D4FD7F716F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2"/>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2AAE2964-E073-4CA7-9A8A-097C2568FD31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="215" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="215" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId4" name="Spinner 9">
+            <control shapeId="1033" r:id="rId5" name="Spinner 9">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>447675</xdr:rowOff>
@@ -851,17 +892,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId5" name="Spinner 11">
+            <control shapeId="1035" r:id="rId6" name="Spinner 11">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>447675</xdr:rowOff>
@@ -873,17 +914,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId6" name="Spinner 12">
+            <control shapeId="1036" r:id="rId7" name="Spinner 12">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>447675</xdr:rowOff>
@@ -895,17 +936,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId7" name="Spinner 13">
+            <control shapeId="1037" r:id="rId8" name="Spinner 13">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>447675</xdr:rowOff>
@@ -917,17 +958,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId8" name="Spinner 14">
+            <control shapeId="1038" r:id="rId9" name="Spinner 14">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>447675</xdr:rowOff>
